--- a/nano/All_Data.xlsx
+++ b/nano/All_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mepps\Documents\Research\2D_Conduction\nano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77A9FFF-A03D-4EAA-9CAD-D2FE02093D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE013F5C-C40F-40C8-9A51-A9638488353B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{B2402E43-B038-44F0-8C18-7ACD788C4A69}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="VarPropEta" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Axisym!$A$2:$R$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Axisym!$A$2:$R$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ConstantPropPlanar!$A$2:$R$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VarPropEta!$A$2:$O$39</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="172">
   <si>
     <t>Folder ID</t>
   </si>
@@ -536,6 +536,24 @@
   </si>
   <si>
     <t>h=3000 on right boundary; no change in corner temp</t>
+  </si>
+  <si>
+    <t>--ablation</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>--heating</t>
+  </si>
+  <si>
+    <t>Very low heating rate; capture temperature profile</t>
+  </si>
+  <si>
+    <t>Flux from Florin, new ignition condition</t>
+  </si>
+  <si>
+    <t>[New ignition criteria, burn rate down r=0]</t>
   </si>
 </sst>
 </file>
@@ -12060,13 +12078,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B099DE-69DA-496C-8376-9BFCA5F25F37}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12995,7 +13013,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -13003,7 +13021,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="4"/>
       <c r="K22" s="25"/>
@@ -13012,16 +13030,18 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="25"/>
-      <c r="Q22" s="21"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="B23" s="4">
         <v>3065</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D23" s="6">
         <v>65</v>
@@ -13048,128 +13068,65 @@
         <v>4890000</v>
       </c>
       <c r="L23" s="15">
-        <v>4.07</v>
+        <v>2.78</v>
       </c>
       <c r="M23" s="21">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="N23" s="21">
-        <v>6.71</v>
+        <v>4.72</v>
       </c>
       <c r="O23" s="21"/>
       <c r="P23" s="25"/>
-      <c r="Q23" s="21" t="s">
-        <v>157</v>
-      </c>
+      <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3065</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="6">
-        <v>65</v>
-      </c>
-      <c r="E24" s="4">
-        <v>100</v>
-      </c>
-      <c r="F24" s="4">
-        <v>600</v>
-      </c>
-      <c r="G24" s="4">
-        <v>200</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="J24" s="4">
-        <v>48</v>
-      </c>
-      <c r="K24" s="25">
-        <v>4890000</v>
-      </c>
-      <c r="L24" s="15">
-        <v>2.78</v>
-      </c>
-      <c r="M24" s="21">
-        <v>0.38</v>
-      </c>
-      <c r="N24" s="21">
-        <v>4.72</v>
-      </c>
-      <c r="O24" s="4">
-        <v>2900</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
       <c r="P24" s="25"/>
-      <c r="Q24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R24" s="21" t="s">
-        <v>155</v>
-      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4">
-        <v>3065</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="6">
-        <v>65</v>
-      </c>
-      <c r="E25" s="4">
-        <v>100</v>
-      </c>
-      <c r="F25" s="4">
-        <v>600</v>
-      </c>
-      <c r="G25" s="4">
-        <v>100</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="J25" s="4">
-        <v>48</v>
-      </c>
-      <c r="K25" s="25">
-        <v>4890000</v>
-      </c>
-      <c r="L25" s="15">
-        <v>2.78</v>
-      </c>
-      <c r="M25" s="21">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="N25" s="21">
-        <v>4.24</v>
-      </c>
-      <c r="O25" s="4">
-        <v>2900</v>
-      </c>
+      <c r="A25" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
       <c r="P25" s="25"/>
-      <c r="Q25" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="R25" s="21" t="s">
-        <v>153</v>
-      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
       <c r="B26" s="4">
         <v>3065</v>
       </c>
@@ -13186,9 +13143,9 @@
         <v>600</v>
       </c>
       <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="22">
@@ -13203,25 +13160,19 @@
       <c r="L26" s="15">
         <v>2.78</v>
       </c>
-      <c r="M26" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" s="4">
-        <v>335</v>
-      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
       <c r="P26" s="25"/>
-      <c r="Q26" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>159</v>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
       <c r="B27" s="4">
         <v>3065</v>
       </c>
@@ -13238,9 +13189,9 @@
         <v>600</v>
       </c>
       <c r="G27" s="4">
-        <v>200</v>
-      </c>
-      <c r="H27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="22">
@@ -13255,25 +13206,17 @@
       <c r="L27" s="15">
         <v>2.78</v>
       </c>
-      <c r="M27" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="N27" s="21">
-        <v>4.03</v>
-      </c>
-      <c r="O27" s="4">
-        <v>2970</v>
-      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
       <c r="P27" s="25"/>
-      <c r="Q27" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="R27" s="21" t="s">
-        <v>161</v>
-      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
       <c r="B28" s="4">
         <v>3065</v>
       </c>
@@ -13290,13 +13233,13 @@
         <v>600</v>
       </c>
       <c r="G28" s="4">
-        <v>200</v>
-      </c>
-      <c r="H28" s="21">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="22" t="s">
         <v>6</v>
+      </c>
+      <c r="I28" s="22">
+        <v>0.8</v>
       </c>
       <c r="J28" s="4">
         <v>48</v>
@@ -13308,286 +13251,473 @@
         <v>2.78</v>
       </c>
       <c r="M28" s="21">
-        <v>0.37</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N28" s="21">
-        <v>4.75</v>
+        <v>4.91</v>
       </c>
       <c r="O28" s="21"/>
       <c r="P28" s="25"/>
-      <c r="Q28" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="R28" s="21" t="s">
-        <v>163</v>
-      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3065</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="6">
-        <v>65</v>
-      </c>
-      <c r="E29" s="4">
-        <v>100</v>
-      </c>
-      <c r="F29" s="4">
-        <v>600</v>
-      </c>
-      <c r="G29" s="4">
-        <v>200</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="J29" s="4">
-        <v>48</v>
-      </c>
-      <c r="K29" s="25">
-        <v>4890000</v>
-      </c>
-      <c r="L29" s="15">
-        <v>2.78</v>
-      </c>
-      <c r="M29" s="21">
-        <v>0.38</v>
-      </c>
-      <c r="N29" s="21">
-        <v>4.72</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="25"/>
-      <c r="Q29" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="R29" s="21" t="s">
-        <v>164</v>
-      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4">
-        <v>3065</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="6">
-        <v>65</v>
-      </c>
-      <c r="E30" s="4">
-        <v>100</v>
-      </c>
-      <c r="F30" s="4">
-        <v>600</v>
-      </c>
-      <c r="G30" s="4">
-        <v>200</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="J30" s="4">
-        <v>48</v>
-      </c>
-      <c r="K30" s="25">
-        <v>4890000</v>
-      </c>
-      <c r="L30" s="15">
-        <v>2.78</v>
-      </c>
+      <c r="A30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="15"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="21"/>
-      <c r="R30" s="21" t="s">
-        <v>165</v>
-      </c>
+      <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="B31" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="6">
+        <v>65</v>
+      </c>
+      <c r="E31" s="4">
+        <v>100</v>
+      </c>
+      <c r="F31" s="4">
+        <v>600</v>
+      </c>
+      <c r="G31" s="4">
+        <v>200</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J31" s="4">
+        <v>48</v>
+      </c>
+      <c r="K31" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L31" s="15">
+        <v>4.07</v>
+      </c>
+      <c r="M31" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="N31" s="21">
+        <v>6.71</v>
+      </c>
       <c r="O31" s="21"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
+      <c r="Q31" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
+      <c r="A32" s="6">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="6">
+        <v>65</v>
+      </c>
+      <c r="E32" s="4">
+        <v>100</v>
+      </c>
+      <c r="F32" s="4">
+        <v>600</v>
+      </c>
+      <c r="G32" s="4">
+        <v>200</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J32" s="4">
+        <v>48</v>
+      </c>
+      <c r="K32" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L32" s="15">
+        <v>2.78</v>
+      </c>
+      <c r="M32" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="N32" s="21">
+        <v>4.72</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2900</v>
+      </c>
       <c r="P32" s="25"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
+      <c r="Q32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
+      <c r="B33" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="6">
+        <v>65</v>
+      </c>
+      <c r="E33" s="4">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4">
+        <v>600</v>
+      </c>
+      <c r="G33" s="4">
+        <v>100</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J33" s="4">
+        <v>48</v>
+      </c>
+      <c r="K33" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L33" s="15">
+        <v>2.78</v>
+      </c>
+      <c r="M33" s="21">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N33" s="21">
+        <v>4.24</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2900</v>
+      </c>
       <c r="P33" s="25"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
+      <c r="Q33" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="R33" s="21" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
+      <c r="B34" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="6">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4">
+        <v>100</v>
+      </c>
+      <c r="F34" s="4">
+        <v>600</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J34" s="4">
+        <v>48</v>
+      </c>
+      <c r="K34" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L34" s="15">
+        <v>2.78</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="O34" s="4">
+        <v>335</v>
+      </c>
       <c r="P34" s="25"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
+      <c r="Q34" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
+      <c r="B35" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="6">
+        <v>65</v>
+      </c>
+      <c r="E35" s="4">
+        <v>100</v>
+      </c>
+      <c r="F35" s="4">
+        <v>600</v>
+      </c>
+      <c r="G35" s="4">
+        <v>200</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J35" s="4">
+        <v>48</v>
+      </c>
+      <c r="K35" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L35" s="15">
+        <v>2.78</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="N35" s="21">
+        <v>4.03</v>
+      </c>
+      <c r="O35" s="4">
+        <v>2970</v>
+      </c>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="6">
+        <v>65</v>
+      </c>
+      <c r="E36" s="4">
+        <v>100</v>
+      </c>
+      <c r="F36" s="4">
+        <v>600</v>
+      </c>
+      <c r="G36" s="4">
+        <v>200</v>
+      </c>
+      <c r="H36" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="4">
+        <v>48</v>
+      </c>
+      <c r="K36" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L36" s="15">
+        <v>2.78</v>
+      </c>
+      <c r="M36" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="N36" s="21">
+        <v>4.75</v>
+      </c>
       <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
+      <c r="A37" s="6">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="6">
+        <v>65</v>
+      </c>
+      <c r="E37" s="4">
+        <v>100</v>
+      </c>
+      <c r="F37" s="4">
+        <v>600</v>
+      </c>
+      <c r="G37" s="4">
+        <v>200</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="4">
+        <v>48</v>
+      </c>
+      <c r="K37" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L37" s="15">
+        <v>2.78</v>
+      </c>
+      <c r="M37" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="N37" s="21">
+        <v>4.72</v>
+      </c>
       <c r="O37" s="21"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
+      <c r="Q37" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="15"/>
+      <c r="A38" s="6">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="6">
+        <v>65</v>
+      </c>
+      <c r="E38" s="4">
+        <v>100</v>
+      </c>
+      <c r="F38" s="4">
+        <v>600</v>
+      </c>
+      <c r="G38" s="4">
+        <v>200</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J38" s="4">
+        <v>48</v>
+      </c>
+      <c r="K38" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L38" s="15">
+        <v>2.78</v>
+      </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
-      <c r="P38" s="25"/>
+      <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
+      <c r="R38" s="21" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="21"/>
       <c r="I39" s="22"/>
       <c r="J39" s="4"/>
@@ -13601,24 +13731,50 @@
       <c r="R39" s="21"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="15"/>
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3065</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="6">
+        <v>65</v>
+      </c>
+      <c r="E40" s="4">
+        <v>100</v>
+      </c>
+      <c r="F40" s="4">
+        <v>600</v>
+      </c>
+      <c r="G40" s="4">
+        <v>400</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="4">
+        <v>48</v>
+      </c>
+      <c r="K40" s="25">
+        <v>4890000</v>
+      </c>
+      <c r="L40" s="15">
+        <v>2.78</v>
+      </c>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
+      <c r="R40" s="21" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
@@ -13641,9 +13797,9 @@
       <c r="R41" s="21"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -13656,7 +13812,7 @@
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
+      <c r="P42" s="25"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
     </row>
@@ -13676,12 +13832,12 @@
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
-      <c r="P43" s="25"/>
+      <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -13716,7 +13872,7 @@
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
+      <c r="P45" s="25"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
     </row>
@@ -13745,38 +13901,38 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="6"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
+      <c r="P47" s="25"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="I48" s="22"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="6"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
+      <c r="P48" s="25"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
     </row>
@@ -13787,32 +13943,32 @@
       <c r="D49" s="6"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="I49" s="22"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="21"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="25"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="6"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="I50" s="22"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="6"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="15"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
@@ -13821,49 +13977,209 @@
       <c r="R50" s="21"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="3"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="3"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="3"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="3"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="3"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="3"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="3"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="3"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="3"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="3"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="3"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="3"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="3"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="3"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="3"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
